--- a/excel_dir/基础IO复杂场景-raid0-在线修改控制器参数-v1.1.xlsx
+++ b/excel_dir/基础IO复杂场景-raid0-在线修改控制器参数-v1.1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SugonWork\Script-Auto-Create\excel_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF2D9F24-D532-4AC0-AF35-833A05912BC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21706706-0237-47D5-8301-EED874D3870F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="194">
   <si>
     <t>用例标题</t>
   </si>
@@ -112,15 +112,6 @@
     <t>无</t>
   </si>
   <si>
-    <t>1. 检查环境是否有符合条件的盘
-2. 创建raid
-3. 设置passthrough开关为off
-4. 进行IO测试工具的配置：测试时间为2min，IO并发线程数1，数据随机比例为100，读写比例为50，数据块大小设为(1K,9K,33K,64K)，测试小IO随机读写
-5. 下发IO任务
-6. IO过程中，顺序切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
-7. 删除raid，将passthrough开关恢复到默认状态</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -131,67 +122,12 @@
   </si>
   <si>
     <t>否</t>
-  </si>
-  <si>
-    <t>1. 检查环境是否有符合条件的盘
-2. 创建raid
-3. 设置passthrough开关为off
-4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数32，数据随机比例为50，读写比例为50，数据块大小设为(1K,16K,13M,21M)，测试小IO顺序随机读写
-5. 下发IO任务
-6. IO过程中，顺序切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
-7. 删除raid，将passthrough开关恢复到默认状态</t>
   </si>
   <si>
     <t>测试编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. 检查环境是否有符合条件的盘
-2. 创建raid
-3. 设置passthrough开关为off
-4. 进行IO测试工具的配置：测试时间为2min，IO并发线程数1，数据随机比例为0，读写比例为50，数据块大小设为(1M,2M,13M,32M)，测试大IO顺序读写
-5. 下发IO任务
-6. IO过程中，顺序切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
-7. 删除raid，将passthrough开关恢复到默认状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. 检查环境是否有符合条件的盘
-2. 创建raid
-3. 设置passthrough开关为off
-4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，数据随机比例为50，读写比例为50，数据块大小设为(1K,16K,13M,21M)，测试混合IO顺序随机读写
-5. 下发IO任务
-6. IO过程中，顺序切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
-7. 删除raid，将passthrough开关恢复到默认状态</t>
-  </si>
-  <si>
-    <t>1. 检查环境是否有符合条件的盘
-2. 创建raid
-3. 设置passthrough开关为off
-4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数32，数据随机比例为0，读写比例为50，数据块大小设为4K，IOPS限速1000，测试小IO顺序随机读写
-5. 下发IO任务
-6. IO过程中，顺序切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
-7. 删除raid，将passthrough开关恢复到默认状态</t>
-  </si>
-  <si>
-    <t>1. 检查环境是否有符合条件的盘
-2. 创建raid
-3. 设置passthrough开关为off
-4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，数据随机比例为100，读写比例为50，数据块大小设为(1K,9K,33K,64K)，测试小IO随机读写
-5. 下发IO任务
-6. IO过程中，顺序切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
-7. 删除raid，将passthrough开关恢复到默认状态</t>
-  </si>
-  <si>
-    <t>1. 检查环境是否有符合条件的盘
-2. 创建raid
-3. 设置passthrough开关为off
-4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，数据随机比例为0，读写比例为50，数据块大小设为(1M,2M,13M,32M)，测试大IO顺序读写
-5. 下发IO任务
-6. IO过程中，顺序切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
-7. 删除raid，将passthrough开关恢复到默认状态</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_001</t>
   </si>
   <si>
@@ -244,36 +180,6 @@
   </si>
   <si>
     <t>basic_io_f_12_42_001_010</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-顺序切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-顺序切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-顺序切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-顺序切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-顺序切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-顺序切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-顺序切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-顺序切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-顺序切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-顺序切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
   </si>
   <si>
     <t>/测试性要求/基础IO测试需求/数据通路/raid0/复杂场景(#1667)</t>
@@ -294,40 +200,10 @@
     <t>liuyuan</t>
   </si>
   <si>
-    <t>基础IO复杂场景-x2口-raid00-顺序切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
     <t>/测试性要求/基础IO测试需求/数据通路/raid00/复杂场景(#1667)</t>
   </si>
   <si>
     <t>raid00基本读写任务成功，数据一致性校验通过</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-顺序切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-顺序切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-顺序切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-顺序切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-顺序切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-顺序切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-顺序切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-顺序切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-顺序切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
   </si>
   <si>
     <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_010_sr_rw_mio.py</t>
@@ -469,10 +345,421 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>1. x4口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid1 count=1 strip=1024k
+4. 小IO顺序随机读写测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.  x4口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid1 count=1 strip=1024k size=10G
+4. 小IO顺序随机读写测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1; sas_hhdx5
+2. sata_ssdx1
 3. type=raid1 count=1 strip=1024k;
 4. 小IO随机读写测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_011</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_011_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_012</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_012_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_013</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_013_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_014</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_014_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_015</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_015_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_016</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_016_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_017</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_017_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_018</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_018_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_019</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_019_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_001_020</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_020_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_011</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_011_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_012</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_012_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_013</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_013_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_014</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_014_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_015</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_015_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_016</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_016_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_017</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_017_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_018</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_018_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_019</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_019_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>basic_io_f_12_42_002_020</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_020_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid1 count=1 strip=1024k
+4. 大IO顺序读写测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid1 count=1 strip=1024k;
+4. 小IO随机读写测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sata_ssdx1; nvme_ssdx1
+3. type=raid1 count=1 strip=1024k
+4. 小IO随机读写测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为2min，IO并发线程数1，seekpct=为100，rdpct=为50，xfersize=设为(1K,9K,33K,64K)，测试小IO随机读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为2min，IO并发线程数1，seekpct=为0，rdpct=为50，xfersize=设为(1M,2M,13M,32M)，测试大IO顺序读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，seekpct=为50，rdpct=为50，xfersize=设为(1K,16K,13M,21M)，测试混合IO顺序随机读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数32，seekpct=为0，rdpct=为50，xfersize=设为4K，IOPS限速1000，测试小IO顺序随机读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数32，seekpct=为50，rdpct=为50，xfersize=设为(1K,16K,13M,21M)，测试小IO顺序随机读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，seekpct=为100，rdpct=为50，xfersize=设为(1K,9K,33K,64K)，测试小IO随机读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，seekpct=为0，rdpct=为50，xfersize=设为(1M,2M,13M,32M)，测试大IO顺序读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为2min，IO并发线程数1，seekpct=为100，rdpct=为50，xfersize=设为(1K,9K,33K,64K)，测试小IO随机读写
+5. 下发IO任务
+6. IO过程中，多线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为2min，IO并发线程数1，seekpct=为0，rdpct=为50，xfersize=设为(1M,2M,13M,32M)，测试大IO顺序读写
+5. 下发IO任务
+6. IO过程中，多线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，seekpct=为50，rdpct=为50，xfersize=设为(1K,16K,13M,21M)，测试混合IO顺序随机读写
+5. 下发IO任务
+6. IO过程中，多线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数32，seekpct=为0，rdpct=为50，xfersize=设为4K，IOPS限速1000，测试小IO顺序随机读写
+5. 下发IO任务
+6. IO过程中，多线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数32，seekpct=为50，rdpct=为50，xfersize=设为(1K,16K,13M,21M)，测试小IO顺序随机读写
+5. 下发IO任务
+6. IO过程中，多线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，seekpct=为100，rdpct=为50，xfersize=设为(1K,9K,33K,64K)，测试小IO随机读写
+5. 下发IO任务
+6. IO过程中，多线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为20min，IO并发线程数1，seekpct=为0，rdpct=为50，xfersize=设为(1M,2M,13M,32M)，测试大IO顺序读写
+5. 下发IO任务
+6. IO过程中，多线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
+  </si>
+  <si>
+    <t>1. 检查环境是否有符合条件的盘
+2. 创建raid
+3. 设置passthrough开关为off
+4. 进行IO测试工具的配置：测试时间为2min，IO并发线程数1，seekpct=0，rdpct=50，xfersize=(1M,2M,13M,32M)，测试大IO顺序读写
+5. 下发IO任务
+6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
+7. 删除raid，将passthrough开关恢复到默认状态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -496,7 +783,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -511,18 +798,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -530,11 +811,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -544,8 +834,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -850,16 +1144,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y22"/>
+  <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="26.375" customWidth="1"/>
-    <col min="2" max="2" width="81.5" customWidth="1"/>
+    <col min="2" max="2" width="151.75" customWidth="1"/>
     <col min="3" max="3" width="57.5" customWidth="1"/>
     <col min="4" max="4" width="15.75" customWidth="1"/>
     <col min="5" max="5" width="57.25" customWidth="1"/>
@@ -883,10 +1177,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -960,19 +1254,19 @@
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -984,7 +1278,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>27</v>
@@ -996,51 +1290,51 @@
         <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="Q2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U2" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1052,7 +1346,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
@@ -1064,51 +1358,51 @@
         <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>37</v>
+        <v>193</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U3" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1120,7 +1414,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
@@ -1132,51 +1426,51 @@
         <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U4" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>129</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1188,7 +1482,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -1200,51 +1494,51 @@
         <v>29</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U5" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>64</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1256,7 +1550,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
@@ -1268,51 +1562,51 @@
         <v>29</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>35</v>
+        <v>85</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U6" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1324,7 +1618,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
@@ -1336,51 +1630,51 @@
         <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>113</v>
+        <v>178</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U7" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -1392,7 +1686,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
@@ -1404,51 +1698,51 @@
         <v>29</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>41</v>
+        <v>185</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U8" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -1460,7 +1754,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
@@ -1472,51 +1766,51 @@
         <v>29</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>38</v>
+        <v>181</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U9" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -1528,7 +1822,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
@@ -1540,51 +1834,51 @@
         <v>29</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>39</v>
+        <v>182</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U10" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -1596,7 +1890,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
@@ -1608,51 +1902,51 @@
         <v>29</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>35</v>
+        <v>94</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="Q11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="U11" s="1" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>24</v>
@@ -1664,7 +1958,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>27</v>
@@ -1676,651 +1970,2007 @@
         <v>29</v>
       </c>
       <c r="M12" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y12" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="N12" s="5" t="s">
+      <c r="D14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="O12" s="6" t="s">
+      <c r="Q14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y17" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y18" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y20" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y21" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S22" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="U22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W22" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y22" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="C23" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J23" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R12" s="5" t="s">
+      <c r="U23" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="S12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5" t="s">
+      <c r="U24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W24" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y24" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L25" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S25" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W26" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S27" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W27" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y27" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S28" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W28" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y28" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J29" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U29" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W29" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y29" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" s="5" t="s">
+      <c r="N30" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S30" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U30" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W30" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y30" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E31" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="5" t="s">
+      <c r="G31" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J13" s="5" t="s">
+      <c r="I31" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K13" s="5" t="s">
+      <c r="K31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="O13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P13" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="5" t="s">
+      <c r="M31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R13" s="5" t="s">
+      <c r="U31" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W31" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M32" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W13" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y13" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5" t="s">
+      <c r="U32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y32" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W33" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y33" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S34" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W35" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y35" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L36" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U36" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y36" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J37" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M37" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S37" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U37" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y37" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J38" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M38" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S38" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W38" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y38" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J39" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M39" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U39" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W39" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M40" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S40" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="U40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W40" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y40" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J41" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M41" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="N14" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O14" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="5" t="s">
+      <c r="N41" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="S41" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="R14" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S14" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y14" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O15" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S15" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W15" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y15" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O16" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S16" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y16" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P17" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S17" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W17" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y17" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="O18" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R18" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S18" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W18" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y18" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P19" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S19" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W19" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y19" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="O20" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S20" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="N21" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="P21" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R21" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="W21" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y21" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="M22" s="4"/>
-      <c r="O22" s="4"/>
+      <c r="U41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="W41" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y41" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/excel_dir/基础IO复杂场景-raid0-在线修改控制器参数-v1.1.xlsx
+++ b/excel_dir/基础IO复杂场景-raid0-在线修改控制器参数-v1.1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SugonWork\Script-Auto-Create\excel_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21706706-0237-47D5-8301-EED874D3870F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E214BA-3F0A-42DD-9170-3F61EB63C655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="199">
   <si>
     <t>用例标题</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>SYPN</t>
-  </si>
-  <si>
-    <t>否</t>
   </si>
   <si>
     <t>测试编号</t>
@@ -131,49 +128,25 @@
     <t>basic_io_f_12_42_001_001</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_001_r_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_002</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_002_s_rw_lio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_003</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_003_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_004</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_004_s_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_005</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_005_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_006</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_006_r_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_007</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_007_s_rw_lio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_008</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_008_sr_rw_mio.py</t>
   </si>
   <si>
     <t>basic_io_f_12_42_001_009</t>
@@ -206,14 +179,6 @@
     <t>raid00基本读写任务成功，数据一致性校验通过</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_010_sr_rw_mio.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_009_s_rw_sio.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_001</t>
   </si>
   <si>
@@ -242,190 +207,42 @@
   </si>
   <si>
     <t>basic_io_f_12_42_002_010</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_001_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_002_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_003_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_004_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_005_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_006_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_007_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_008_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_009_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_010_sr_rw_mio.py</t>
   </si>
   <si>
     <t>脚本名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k size=10G
-4. 小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x4口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x4口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>1. x4口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x4口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x4口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k size=10G
-4. 小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k;
-4. 大IO顺序读写测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. x4口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 小IO顺序随机读写测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.  x4口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k size=10G
-4. 小IO顺序随机读写测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1
-3. type=raid1 count=1 strip=1024k;
-4. 小IO随机读写测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_011</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_011_r_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_012</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_012_s_rw_lio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_013</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_013_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_014</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_014_s_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_015</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_015_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_016</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_016_r_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_017</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_017_s_rw_lio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_018</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_018_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_019</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_019_s_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_001_020</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/change_controller_configuration/basic_io_f_12_42_001_020_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
   </si>
   <si>
@@ -549,82 +366,31 @@
     <t>basic_io_f_12_42_002_011</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_011_r_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_012</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_012_s_rw_lio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_013</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_013_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_014</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_014_s_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_015</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_015_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_016</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_016_r_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_017</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_017_s_rw_lio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_018</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_018_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_019</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_019_s_rw_sio.py</t>
-  </si>
-  <si>
     <t>basic_io_f_12_42_002_020</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/change_controller_configuration/basic_io_f_12_42_002_020_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 大IO顺序读写测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. x2口
-2. sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k;
-4. 小IO随机读写测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. x4口
-2. sata_ssdx1; sas_ssdx1; sata_hddx1; sata_ssdx1; nvme_ssdx1
-3. type=raid1 count=1 strip=1024k
-4. 小IO随机读写测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. 检查环境是否有符合条件的盘
@@ -760,6 +526,262 @@
 5. 下发IO任务
 6. IO过程中，单线程切换寄存器配置、foreignautoimport开关、修改回迁开关及类型、切换巡读模式、切换热备开关、切换JBOD开关，等待测试结果
 7. 删除raid，将passthrough开关恢复到默认状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k;
+4. 小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k
+4. 大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k
+4. 混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k size=10G
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sas_hddx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k
+4. 小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sas_hddx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k
+4. 大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sas_hddx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k
+4. 混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sas_hddx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1.  x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sas_hddx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k size=10G
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1
+3. type=raid0 count=1 strip=1024k;
+4. 小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>1.  x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sas_hddx1; nvme_ssdx1
+3. type=raid0 count=1 strip=1024k size=10G 
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x2口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k size=10G pdperarray=1
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_ssdx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sas_ssdx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_hddx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sas_hddx1; nvme_ssdx1
+3. type=raid00 count=1 strip=1024k pdperarray=1
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>1. x4口
+2. sata_ssdx1; sas_ssdx1; sata_hddx1; sas_hddx1; nvme_ssdx2
+3. type=raid00 count=1 strip=1024k size=10G pdperarray=3
+4. 小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_001_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_002_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_003_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_004_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_005_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_006_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_007_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_008_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_009_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_010_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_011_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_012_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_013_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_014_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_015_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_016_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_017_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_018_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_019_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_020_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_001_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_002_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_003_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_004_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_005_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_006_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_007_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_008_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_009_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_010_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_011_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_012_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_013_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_014_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_015_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_016_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_017_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_018_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_019_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_020_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1146,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2:Y41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1177,10 +1199,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1254,19 +1276,19 @@
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1278,7 +1300,7 @@
         <v>26</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>27</v>
@@ -1290,13 +1312,13 @@
         <v>29</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>177</v>
+        <v>136</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>30</v>
@@ -1311,30 +1333,30 @@
         <v>32</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>159</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>127</v>
+        <v>82</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1346,7 +1368,7 @@
         <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>27</v>
@@ -1358,13 +1380,13 @@
         <v>29</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>176</v>
+        <v>137</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>30</v>
@@ -1379,30 +1401,30 @@
         <v>32</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1414,7 +1436,7 @@
         <v>26</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>27</v>
@@ -1426,13 +1448,13 @@
         <v>29</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>30</v>
@@ -1447,30 +1469,30 @@
         <v>32</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>161</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1482,7 +1504,7 @@
         <v>26</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>27</v>
@@ -1494,13 +1516,13 @@
         <v>29</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>30</v>
@@ -1515,30 +1537,30 @@
         <v>32</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W5" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>85</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1550,7 +1572,7 @@
         <v>26</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>27</v>
@@ -1562,13 +1584,13 @@
         <v>29</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>30</v>
@@ -1583,30 +1605,30 @@
         <v>32</v>
       </c>
       <c r="U6" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W6" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>131</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1618,7 +1640,7 @@
         <v>26</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
@@ -1630,13 +1652,13 @@
         <v>29</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>178</v>
+        <v>141</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P7" s="1" t="s">
         <v>30</v>
@@ -1651,30 +1673,30 @@
         <v>32</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W7" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>87</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -1686,7 +1708,7 @@
         <v>26</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
@@ -1698,13 +1720,13 @@
         <v>29</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P8" s="1" t="s">
         <v>30</v>
@@ -1719,30 +1741,30 @@
         <v>32</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>165</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>88</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -1754,7 +1776,7 @@
         <v>26</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>27</v>
@@ -1766,13 +1788,13 @@
         <v>29</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P9" s="1" t="s">
         <v>30</v>
@@ -1787,30 +1809,30 @@
         <v>32</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>60</v>
+        <v>166</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>134</v>
+        <v>89</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -1822,7 +1844,7 @@
         <v>26</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>27</v>
@@ -1834,13 +1856,13 @@
         <v>29</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="O10" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P10" s="1" t="s">
         <v>30</v>
@@ -1855,30 +1877,30 @@
         <v>32</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>167</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>90</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -1890,7 +1912,7 @@
         <v>26</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>27</v>
@@ -1902,13 +1924,13 @@
         <v>29</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P11" s="1" t="s">
         <v>30</v>
@@ -1923,30 +1945,30 @@
         <v>32</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W11" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>97</v>
+        <v>168</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>116</v>
+        <v>71</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>24</v>
@@ -1958,7 +1980,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>27</v>
@@ -1970,13 +1992,13 @@
         <v>29</v>
       </c>
       <c r="M12" s="6" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="N12" s="6" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="O12" s="6" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P12" s="5" t="s">
         <v>30</v>
@@ -1991,30 +2013,30 @@
         <v>32</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="W12" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y12" s="5" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -2026,7 +2048,7 @@
         <v>26</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>27</v>
@@ -2038,13 +2060,13 @@
         <v>29</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="O13" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P13" s="1" t="s">
         <v>30</v>
@@ -2059,30 +2081,30 @@
         <v>32</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W13" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>100</v>
+        <v>63</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>170</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>118</v>
+        <v>73</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -2094,7 +2116,7 @@
         <v>26</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>27</v>
@@ -2106,13 +2128,13 @@
         <v>29</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>30</v>
@@ -2127,30 +2149,30 @@
         <v>32</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>119</v>
+        <v>74</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -2162,7 +2184,7 @@
         <v>26</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>27</v>
@@ -2174,13 +2196,13 @@
         <v>29</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>30</v>
@@ -2195,30 +2217,30 @@
         <v>32</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>104</v>
+        <v>65</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>120</v>
+        <v>75</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -2230,7 +2252,7 @@
         <v>26</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>27</v>
@@ -2242,13 +2264,13 @@
         <v>29</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="O16" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P16" s="1" t="s">
         <v>30</v>
@@ -2263,30 +2285,30 @@
         <v>32</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W16" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>121</v>
+        <v>76</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
@@ -2298,7 +2320,7 @@
         <v>26</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>27</v>
@@ -2310,13 +2332,13 @@
         <v>29</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>30</v>
@@ -2331,30 +2353,30 @@
         <v>32</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W17" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>109</v>
+        <v>174</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -2366,7 +2388,7 @@
         <v>26</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>27</v>
@@ -2378,13 +2400,13 @@
         <v>29</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="O18" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P18" s="1" t="s">
         <v>30</v>
@@ -2399,30 +2421,30 @@
         <v>32</v>
       </c>
       <c r="U18" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W18" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>110</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>123</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>24</v>
@@ -2434,7 +2456,7 @@
         <v>26</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>27</v>
@@ -2446,13 +2468,13 @@
         <v>29</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>88</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O19" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P19" s="1" t="s">
         <v>30</v>
@@ -2467,30 +2489,30 @@
         <v>32</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
@@ -2502,7 +2524,7 @@
         <v>26</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>27</v>
@@ -2514,13 +2536,13 @@
         <v>29</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P20" s="1" t="s">
         <v>30</v>
@@ -2535,30 +2557,30 @@
         <v>32</v>
       </c>
       <c r="U20" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W20" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>125</v>
+        <v>80</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -2570,7 +2592,7 @@
         <v>26</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>27</v>
@@ -2582,13 +2604,13 @@
         <v>29</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>94</v>
+        <v>147</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P21" s="1" t="s">
         <v>30</v>
@@ -2603,30 +2625,30 @@
         <v>32</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>33</v>
+        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>136</v>
+        <v>91</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>24</v>
@@ -2638,7 +2660,7 @@
         <v>26</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>27</v>
@@ -2650,13 +2672,13 @@
         <v>29</v>
       </c>
       <c r="M22" s="8" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="N22" s="8" t="s">
-        <v>179</v>
+        <v>121</v>
       </c>
       <c r="O22" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P22" s="7" t="s">
         <v>30</v>
@@ -2671,30 +2693,30 @@
         <v>32</v>
       </c>
       <c r="U22" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W22" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y22" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y22" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
@@ -2706,7 +2728,7 @@
         <v>26</v>
       </c>
       <c r="I23" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>27</v>
@@ -2718,13 +2740,13 @@
         <v>29</v>
       </c>
       <c r="M23" s="4" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>180</v>
+        <v>122</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P23" s="3" t="s">
         <v>30</v>
@@ -2739,30 +2761,30 @@
         <v>32</v>
       </c>
       <c r="U23" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y23" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>73</v>
+        <v>180</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
@@ -2774,7 +2796,7 @@
         <v>26</v>
       </c>
       <c r="I24" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>27</v>
@@ -2786,13 +2808,13 @@
         <v>29</v>
       </c>
       <c r="M24" s="4" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>30</v>
@@ -2807,30 +2829,30 @@
         <v>32</v>
       </c>
       <c r="U24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W24" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>74</v>
+        <v>181</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>24</v>
@@ -2842,7 +2864,7 @@
         <v>26</v>
       </c>
       <c r="I25" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>27</v>
@@ -2854,13 +2876,13 @@
         <v>29</v>
       </c>
       <c r="M25" s="4" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P25" s="3" t="s">
         <v>30</v>
@@ -2875,30 +2897,30 @@
         <v>32</v>
       </c>
       <c r="U25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W25" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y25" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>75</v>
+        <v>182</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>24</v>
@@ -2910,7 +2932,7 @@
         <v>26</v>
       </c>
       <c r="I26" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>27</v>
@@ -2922,13 +2944,13 @@
         <v>29</v>
       </c>
       <c r="M26" s="4" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="O26" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P26" s="3" t="s">
         <v>30</v>
@@ -2943,30 +2965,30 @@
         <v>32</v>
       </c>
       <c r="U26" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W26" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y26" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>141</v>
+        <v>96</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>24</v>
@@ -2978,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>27</v>
@@ -2990,13 +3012,13 @@
         <v>29</v>
       </c>
       <c r="M27" s="4" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="O27" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P27" s="3" t="s">
         <v>30</v>
@@ -3011,30 +3033,30 @@
         <v>32</v>
       </c>
       <c r="U27" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W27" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y27" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>77</v>
+        <v>184</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>142</v>
+        <v>97</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>24</v>
@@ -3046,7 +3068,7 @@
         <v>26</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J28" s="3" t="s">
         <v>27</v>
@@ -3058,13 +3080,13 @@
         <v>29</v>
       </c>
       <c r="M28" s="4" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="O28" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P28" s="3" t="s">
         <v>30</v>
@@ -3079,30 +3101,30 @@
         <v>32</v>
       </c>
       <c r="U28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W28" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y28" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="29" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -3114,7 +3136,7 @@
         <v>26</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>27</v>
@@ -3126,13 +3148,13 @@
         <v>29</v>
       </c>
       <c r="M29" s="4" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>181</v>
+        <v>123</v>
       </c>
       <c r="O29" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>30</v>
@@ -3147,30 +3169,30 @@
         <v>32</v>
       </c>
       <c r="U29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W29" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y29" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>144</v>
+        <v>99</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>24</v>
@@ -3182,7 +3204,7 @@
         <v>26</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J30" s="3" t="s">
         <v>27</v>
@@ -3194,13 +3216,13 @@
         <v>29</v>
       </c>
       <c r="M30" s="4" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="O30" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P30" s="3" t="s">
         <v>30</v>
@@ -3215,30 +3237,30 @@
         <v>32</v>
       </c>
       <c r="U30" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W30" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y30" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="31" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>80</v>
+        <v>187</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>145</v>
+        <v>100</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>24</v>
@@ -3250,7 +3272,7 @@
         <v>26</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J31" s="3" t="s">
         <v>27</v>
@@ -3262,13 +3284,13 @@
         <v>29</v>
       </c>
       <c r="M31" s="4" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>183</v>
+        <v>125</v>
       </c>
       <c r="O31" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P31" s="3" t="s">
         <v>30</v>
@@ -3283,30 +3305,30 @@
         <v>32</v>
       </c>
       <c r="U31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W31" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y31" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>156</v>
+        <v>111</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>146</v>
+        <v>101</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>24</v>
@@ -3318,7 +3340,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>27</v>
@@ -3330,13 +3352,13 @@
         <v>29</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="N32" s="8" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="O32" s="8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P32" s="7" t="s">
         <v>30</v>
@@ -3351,30 +3373,30 @@
         <v>32</v>
       </c>
       <c r="U32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="W32" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y32" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>158</v>
+        <v>112</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>147</v>
+        <v>102</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>24</v>
@@ -3386,7 +3408,7 @@
         <v>26</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>27</v>
@@ -3398,13 +3420,13 @@
         <v>29</v>
       </c>
       <c r="M33" s="4" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="N33" s="4" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="O33" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P33" s="3" t="s">
         <v>30</v>
@@ -3419,30 +3441,30 @@
         <v>32</v>
       </c>
       <c r="U33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W33" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y33" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>160</v>
+        <v>113</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>161</v>
+        <v>190</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>148</v>
+        <v>103</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>24</v>
@@ -3454,7 +3476,7 @@
         <v>26</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J34" s="3" t="s">
         <v>27</v>
@@ -3466,13 +3488,13 @@
         <v>29</v>
       </c>
       <c r="M34" s="4" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P34" s="3" t="s">
         <v>30</v>
@@ -3487,30 +3509,30 @@
         <v>32</v>
       </c>
       <c r="U34" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W34" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y34" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>24</v>
@@ -3522,7 +3544,7 @@
         <v>26</v>
       </c>
       <c r="I35" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>27</v>
@@ -3534,13 +3556,13 @@
         <v>29</v>
       </c>
       <c r="M35" s="4" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="N35" s="4" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="O35" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P35" s="3" t="s">
         <v>30</v>
@@ -3555,30 +3577,30 @@
         <v>32</v>
       </c>
       <c r="U35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W35" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y35" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>150</v>
+        <v>105</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>24</v>
@@ -3590,7 +3612,7 @@
         <v>26</v>
       </c>
       <c r="I36" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J36" s="3" t="s">
         <v>27</v>
@@ -3602,13 +3624,13 @@
         <v>29</v>
       </c>
       <c r="M36" s="4" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="N36" s="4" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="O36" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P36" s="3" t="s">
         <v>30</v>
@@ -3623,30 +3645,30 @@
         <v>32</v>
       </c>
       <c r="U36" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y36" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>167</v>
+        <v>193</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>151</v>
+        <v>106</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>24</v>
@@ -3658,7 +3680,7 @@
         <v>26</v>
       </c>
       <c r="I37" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J37" s="3" t="s">
         <v>27</v>
@@ -3670,13 +3692,13 @@
         <v>29</v>
       </c>
       <c r="M37" s="4" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="N37" s="4" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="O37" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P37" s="3" t="s">
         <v>30</v>
@@ -3691,30 +3713,30 @@
         <v>32</v>
       </c>
       <c r="U37" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W37" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y37" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>168</v>
+        <v>117</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>152</v>
+        <v>107</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>24</v>
@@ -3726,7 +3748,7 @@
         <v>26</v>
       </c>
       <c r="I38" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J38" s="3" t="s">
         <v>27</v>
@@ -3738,13 +3760,13 @@
         <v>29</v>
       </c>
       <c r="M38" s="4" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="N38" s="4" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="O38" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P38" s="3" t="s">
         <v>30</v>
@@ -3759,30 +3781,30 @@
         <v>32</v>
       </c>
       <c r="U38" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W38" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y38" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>24</v>
@@ -3794,7 +3816,7 @@
         <v>26</v>
       </c>
       <c r="I39" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J39" s="3" t="s">
         <v>27</v>
@@ -3806,13 +3828,13 @@
         <v>29</v>
       </c>
       <c r="M39" s="4" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="N39" s="4" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="O39" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P39" s="3" t="s">
         <v>30</v>
@@ -3827,30 +3849,30 @@
         <v>32</v>
       </c>
       <c r="U39" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W39" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y39" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>154</v>
+        <v>109</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>24</v>
@@ -3862,7 +3884,7 @@
         <v>26</v>
       </c>
       <c r="I40" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J40" s="3" t="s">
         <v>27</v>
@@ -3874,13 +3896,13 @@
         <v>29</v>
       </c>
       <c r="M40" s="4" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="N40" s="4" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="O40" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P40" s="3" t="s">
         <v>30</v>
@@ -3895,30 +3917,30 @@
         <v>32</v>
       </c>
       <c r="U40" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W40" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y40" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y40" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>174</v>
+        <v>120</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>155</v>
+        <v>110</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>24</v>
@@ -3930,7 +3952,7 @@
         <v>26</v>
       </c>
       <c r="I41" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>27</v>
@@ -3942,13 +3964,13 @@
         <v>29</v>
       </c>
       <c r="M41" s="4" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="N41" s="4" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="O41" s="4" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="P41" s="3" t="s">
         <v>30</v>
@@ -3963,13 +3985,13 @@
         <v>32</v>
       </c>
       <c r="U41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="W41" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y41" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y41" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/excel_dir/基础IO复杂场景-raid0-在线修改控制器参数-v1.1.xlsx
+++ b/excel_dir/基础IO复杂场景-raid0-在线修改控制器参数-v1.1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SugonWork\Script-Auto-Create\excel_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E214BA-3F0A-42DD-9170-3F61EB63C655}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0139F2F-C532-4FCD-8F21-ACAF5BB19C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>系统测试-功能</t>
   </si>
   <si>
-    <t>复杂场景的基础IO测试</t>
-  </si>
-  <si>
     <t>RAID/HBA卡</t>
   </si>
   <si>
@@ -153,9 +150,6 @@
   </si>
   <si>
     <t>basic_io_f_12_42_001_010</t>
-  </si>
-  <si>
-    <t>/测试性要求/基础IO测试需求/数据通路/raid0/复杂场景(#1667)</t>
   </si>
   <si>
     <t>raid0基本读写任务成功，数据一致性校验通过</t>
@@ -173,9 +167,6 @@
     <t>liuyuan</t>
   </si>
   <si>
-    <t>/测试性要求/基础IO测试需求/数据通路/raid00/复杂场景(#1667)</t>
-  </si>
-  <si>
     <t>raid00基本读写任务成功，数据一致性校验通过</t>
   </si>
   <si>
@@ -241,126 +232,6 @@
   </si>
   <si>
     <t>basic_io_f_12_42_001_020</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid0-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid0-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x2口-raid00-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
-  </si>
-  <si>
-    <t>基础IO复杂场景-x4口-raid00-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
   </si>
   <si>
     <t>basic_io_f_12_42_002_011</t>
@@ -721,68 +592,197 @@
     <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid0/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_001_020_sr_rw_mio.py</t>
   </si>
   <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_001_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_002_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_003_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_004_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_005_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_006_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_007_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_008_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_009_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_010_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_011_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_012_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_013_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_014_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_015_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_016_r_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_017_s_rw_lio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_018_sr_rw_mio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_019_s_rw_sio.py</t>
-  </si>
-  <si>
-    <t>system_test/basic_io/raid_hbd_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_020_sr_rw_mio.py</t>
-  </si>
-  <si>
     <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>/测试性要求/基础IO测试需求/数据通路/raid0/数据管理交互(#1667)</t>
+  </si>
+  <si>
+    <t>数据管理交互的基础IO测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid0-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid0-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>/测试性要求/基础IO测试需求/数据通路/raid00/数据管理交互(#1667)</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-单线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-单线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-单线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-单线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-单线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x2口-raid00-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-多线程切换多种控制器配置项-游戏/数据库类数据流-小IO随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-多线程切换多种控制器配置项-视频类数据流-大IO顺序读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-多线程切换多种控制器配置项-组合数据流-混合IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-多线程切换多种控制器配置项-网页服务器访问数据流-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>基础IO数据管理交互-x4口-raid00-多线程切换多种控制器配置项-满盘测试场景-小IO顺序随机读写测试</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_001_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_002_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_003_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_004_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_005_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_006_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_007_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_008_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_009_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_010_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_011_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_012_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_013_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_014_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_015_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_016_r_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_017_s_rw_lio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_018_sr_rw_mio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_019_s_rw_sio.py</t>
+  </si>
+  <si>
+    <t>system_test/basic_io/raid_hba_card/raid0/basicio_function/raid00/complex_scene/controller_parameter_change_scripts/basic_io_f_12_42_002_020_sr_rw_mio.py</t>
   </si>
 </sst>
 </file>
@@ -1168,8 +1168,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y2" sqref="Y2:Y41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1199,10 +1199,10 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1276,19 +1276,19 @@
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>81</v>
+        <v>136</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
@@ -1297,66 +1297,66 @@
         <v>25</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W2" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y2" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>159</v>
+        <v>116</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>24</v>
@@ -1365,66 +1365,66 @@
         <v>25</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W3" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y3" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>24</v>
@@ -1433,66 +1433,66 @@
         <v>25</v>
       </c>
       <c r="H4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U4" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W4" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>161</v>
+        <v>118</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>24</v>
@@ -1501,66 +1501,66 @@
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="K5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W5" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>162</v>
+        <v>119</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>24</v>
@@ -1569,66 +1569,66 @@
         <v>25</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="K6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W6" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y6" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>163</v>
+        <v>120</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>24</v>
@@ -1637,66 +1637,66 @@
         <v>25</v>
       </c>
       <c r="H7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="K7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U7" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W7" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y7" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>164</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>24</v>
@@ -1705,66 +1705,66 @@
         <v>25</v>
       </c>
       <c r="H8" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="K8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W8" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>165</v>
+        <v>122</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>88</v>
+        <v>145</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>24</v>
@@ -1773,66 +1773,66 @@
         <v>25</v>
       </c>
       <c r="H9" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="K9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U9" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W9" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>24</v>
@@ -1841,66 +1841,66 @@
         <v>25</v>
       </c>
       <c r="H10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="K10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U10" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N10" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U10" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W10" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y10" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>90</v>
+        <v>147</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>24</v>
@@ -1909,66 +1909,66 @@
         <v>25</v>
       </c>
       <c r="H11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="K11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U11" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U11" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W11" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y11" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:25" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>24</v>
@@ -1977,66 +1977,66 @@
         <v>25</v>
       </c>
       <c r="H12" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="K12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="W12" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y12" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>72</v>
+        <v>149</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>24</v>
@@ -2045,66 +2045,66 @@
         <v>25</v>
       </c>
       <c r="H13" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="K13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="N13" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U13" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W13" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>170</v>
+        <v>127</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>24</v>
@@ -2113,66 +2113,66 @@
         <v>25</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="K14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="N14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W14" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y14" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>24</v>
@@ -2181,66 +2181,66 @@
         <v>25</v>
       </c>
       <c r="H15" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="K15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="N15" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W15" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>172</v>
+        <v>129</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>75</v>
+        <v>152</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>24</v>
@@ -2249,66 +2249,66 @@
         <v>25</v>
       </c>
       <c r="H16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="K16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U16" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U16" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W16" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>24</v>
@@ -2317,66 +2317,66 @@
         <v>25</v>
       </c>
       <c r="H17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="K17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R17" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U17" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J17" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="N17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W17" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y17" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>154</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>24</v>
@@ -2385,66 +2385,66 @@
         <v>25</v>
       </c>
       <c r="H18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="1" t="s">
+      <c r="K18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R18" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U18" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="N18" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W18" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y18" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>175</v>
+        <v>132</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>78</v>
+        <v>155</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>24</v>
@@ -2453,66 +2453,66 @@
         <v>25</v>
       </c>
       <c r="H19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="K19" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U19" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="N19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U19" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W19" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y19" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>176</v>
+        <v>133</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>24</v>
@@ -2521,66 +2521,66 @@
         <v>25</v>
       </c>
       <c r="H20" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="1" t="s">
+      <c r="K20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J20" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="N20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U20" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W20" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y20" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:25" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>177</v>
+        <v>134</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>157</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>44</v>
+        <v>137</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>24</v>
@@ -2589,66 +2589,66 @@
         <v>25</v>
       </c>
       <c r="H21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J21" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="1" t="s">
+      <c r="K21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="R21" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="U21" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="J21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K21" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="L21" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="N21" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P21" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U21" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="W21" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y21" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:25" s="7" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F22" s="7" t="s">
         <v>24</v>
@@ -2657,66 +2657,66 @@
         <v>25</v>
       </c>
       <c r="H22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="M22" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M22" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="N22" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="O22" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Q22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R22" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="U22" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W22" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y22" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>24</v>
@@ -2725,66 +2725,66 @@
         <v>25</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="L23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="M23" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P23" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M23" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N23" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="O23" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P23" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R23" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U23" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>93</v>
+        <v>161</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>24</v>
@@ -2793,66 +2793,66 @@
         <v>25</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J24" s="3" t="s">
+      <c r="K24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="L24" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="M24" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M24" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N24" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R24" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U24" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W24" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y24" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>94</v>
+        <v>162</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>24</v>
@@ -2861,66 +2861,66 @@
         <v>25</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="3" t="s">
+      <c r="K25" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="L25" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="M25" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M25" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N25" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O25" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P25" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R25" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S25" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U25" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W25" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>95</v>
+        <v>163</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>24</v>
@@ -2929,66 +2929,66 @@
         <v>25</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="L26" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="M26" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M26" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N26" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O26" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P26" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R26" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S26" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U26" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W26" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y26" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="27" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>96</v>
+        <v>164</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>24</v>
@@ -2997,66 +2997,66 @@
         <v>25</v>
       </c>
       <c r="H27" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="L27" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M27" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N27" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="O27" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P27" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S27" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U27" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W27" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y27" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>97</v>
+        <v>165</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>24</v>
@@ -3065,66 +3065,66 @@
         <v>25</v>
       </c>
       <c r="H28" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="3" t="s">
+      <c r="K28" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="3" t="s">
+      <c r="L28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="3" t="s">
+      <c r="M28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N28" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="O28" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P28" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S28" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U28" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y28" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>98</v>
+        <v>166</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>24</v>
@@ -3133,66 +3133,66 @@
         <v>25</v>
       </c>
       <c r="H29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J29" s="3" t="s">
+      <c r="K29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="3" t="s">
+      <c r="L29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="3" t="s">
+      <c r="M29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P29" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M29" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N29" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="O29" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U29" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W29" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>99</v>
+        <v>167</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>24</v>
@@ -3201,66 +3201,66 @@
         <v>25</v>
       </c>
       <c r="H30" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I30" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="3" t="s">
+      <c r="K30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="3" t="s">
+      <c r="L30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L30" s="3" t="s">
+      <c r="M30" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M30" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N30" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="O30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P30" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R30" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S30" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U30" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W30" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="31" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>100</v>
+        <v>168</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>24</v>
@@ -3269,66 +3269,66 @@
         <v>25</v>
       </c>
       <c r="H31" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="3" t="s">
+      <c r="K31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="3" t="s">
+      <c r="L31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="3" t="s">
+      <c r="M31" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M31" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O31" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S31" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S31" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U31" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W31" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:25" s="7" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="7" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>101</v>
+        <v>169</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>23</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>24</v>
@@ -3337,66 +3337,66 @@
         <v>25</v>
       </c>
       <c r="H32" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L32" s="7" t="s">
+      <c r="M32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M32" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="N32" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="O32" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>30</v>
-      </c>
       <c r="Q32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S32" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="R32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S32" s="7" t="s">
-        <v>32</v>
-      </c>
       <c r="U32" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W32" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y32" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="33" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="3" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>102</v>
+        <v>170</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>24</v>
@@ -3405,66 +3405,66 @@
         <v>25</v>
       </c>
       <c r="H33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="3" t="s">
+      <c r="K33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="L33" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="M33" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P33" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="O33" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P33" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S33" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S33" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U33" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W33" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y33" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="34" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="3" t="s">
-        <v>113</v>
+        <v>70</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>24</v>
@@ -3473,66 +3473,66 @@
         <v>25</v>
       </c>
       <c r="H34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J34" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="K34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="L34" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="M34" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P34" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M34" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="N34" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O34" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P34" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R34" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S34" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U34" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W34" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="3" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>24</v>
@@ -3541,66 +3541,66 @@
         <v>25</v>
       </c>
       <c r="H35" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J35" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I35" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="3" t="s">
+      <c r="K35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="L35" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="M35" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O35" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P35" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M35" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O35" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P35" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S35" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U35" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W35" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y35" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="3" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F36" s="3" t="s">
         <v>24</v>
@@ -3609,66 +3609,66 @@
         <v>25</v>
       </c>
       <c r="H36" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I36" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J36" s="3" t="s">
+      <c r="K36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="L36" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="M36" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P36" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O36" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P36" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R36" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S36" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S36" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U36" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W36" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y36" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="3" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>24</v>
@@ -3677,66 +3677,66 @@
         <v>25</v>
       </c>
       <c r="H37" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I37" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="3" t="s">
+      <c r="K37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="L37" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="M37" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="N37" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O37" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P37" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="N37" s="4" t="s">
-        <v>133</v>
-      </c>
-      <c r="O37" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P37" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R37" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S37" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S37" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U37" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W37" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y37" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="3" t="s">
-        <v>117</v>
+        <v>74</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>24</v>
@@ -3745,66 +3745,66 @@
         <v>25</v>
       </c>
       <c r="H38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J38" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I38" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J38" s="3" t="s">
+      <c r="K38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="L38" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="M38" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N38" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P38" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M38" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="N38" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="O38" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P38" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R38" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S38" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S38" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U38" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W38" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="3" t="s">
-        <v>118</v>
+        <v>75</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F39" s="3" t="s">
         <v>24</v>
@@ -3813,66 +3813,66 @@
         <v>25</v>
       </c>
       <c r="H39" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I39" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J39" s="3" t="s">
+      <c r="K39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="L39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="M39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="N39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O39" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P39" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M39" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="N39" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="O39" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P39" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S39" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S39" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U39" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W39" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="3" t="s">
-        <v>119</v>
+        <v>76</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>109</v>
+        <v>177</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F40" s="3" t="s">
         <v>24</v>
@@ -3881,66 +3881,66 @@
         <v>25</v>
       </c>
       <c r="H40" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I40" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J40" s="3" t="s">
+      <c r="K40" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K40" s="3" t="s">
+      <c r="L40" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L40" s="3" t="s">
+      <c r="M40" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="O40" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M40" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="N40" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P40" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R40" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S40" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S40" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U40" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W40" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y40" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:25" s="3" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="3" t="s">
-        <v>120</v>
+        <v>77</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>110</v>
+        <v>178</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>23</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>48</v>
+        <v>159</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>24</v>
@@ -3949,49 +3949,49 @@
         <v>25</v>
       </c>
       <c r="H41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="I41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J41" s="3" t="s">
+      <c r="K41" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="L41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="3" t="s">
+      <c r="M41" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="O41" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P41" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="N41" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="P41" s="3" t="s">
-        <v>30</v>
-      </c>
       <c r="Q41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R41" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S41" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="R41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S41" s="3" t="s">
-        <v>32</v>
-      </c>
       <c r="U41" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="W41" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>198</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
